--- a/Phân công.xlsx
+++ b/Phân công.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/20120246_student_hcmus_edu_vn/Documents/THIRD ACADEMIC YEAR/Introduction to Algorithm Complexity Analysis/CSC14007_Mid-term-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0BBC991-D0FB-4BEB-8C8E-3F3F9A1E4753}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân công" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -33,47 +35,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Nhập môn Phân tích Độ phức tạp thuật toán</t>
+  </si>
+  <si>
+    <t>[Lớp 20_21] [Nhóm 8]</t>
+  </si>
+  <si>
+    <t>Chủ đề 2: Các thuật toán so khớp chuỗi</t>
+  </si>
+  <si>
+    <t>Deadline: 12/11/2022</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
   <si>
     <t>Due Date</t>
   </si>
   <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Chủ đề 2: Các thuật toán so khớp chuỗi</t>
-  </si>
-  <si>
-    <t>Deadline: 02/11/2022</t>
-  </si>
-  <si>
-    <t>Người thực hiện</t>
-  </si>
-  <si>
-    <t>Công việc</t>
-  </si>
-  <si>
-    <t>Nhập môn Phân tích Độ phức tạp thuật toán</t>
-  </si>
-  <si>
-    <t>[Lớp 20_21] [Nhóm 8]</t>
-  </si>
-  <si>
-    <t>STT</t>
+    <t>Naive Algorithm</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Mỗi thuật toán gồm 1 file word mô tả
+thuật toán, cách cài đặt, phân tích độ phức tạp, 1 file python script;
+commit lên main trên repo.</t>
   </si>
   <si>
     <t>Rabin-Karp Algorithm</t>
   </si>
   <si>
-    <t>Naive Algorithm</t>
+    <t>Đăng</t>
   </si>
   <si>
     <t>Knuth–Morris–Pratt Algorithm</t>
   </si>
   <si>
+    <t>Thiên</t>
+  </si>
+  <si>
     <t>Tính thời gian chạy, vẽ biểu đồ</t>
   </si>
   <si>
@@ -87,18 +103,13 @@
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>Mỗi thuật toán gồm 1 file word,
- 1 file python script;
- commit lên main trên repo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,6 +218,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -226,11 +246,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,6 +326,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -334,7 +355,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,14 +370,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B7:F33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B7:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="B7:F33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B7:F33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="13" name="STT" dataDxfId="6"/>
-    <tableColumn id="1" name="Công việc" dataDxfId="5"/>
-    <tableColumn id="2" name="Due Date" dataDxfId="4"/>
-    <tableColumn id="5" name="Người thực hiện" dataDxfId="3"/>
-    <tableColumn id="6" name="Status" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="STT" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Công việc" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Due Date" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Người thực hiện" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,14 +703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -698,318 +718,325 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="33.75">
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="21">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="21">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="21">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="21">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="17.25">
       <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:7" ht="17.25" customHeight="1">
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.25">
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="17.25">
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="17.25">
       <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.25">
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="17.25">
       <c r="B13" s="4">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="17.25">
       <c r="B14" s="4">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="17.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="17.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="17.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="17.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="17.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="17.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="17.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="17.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="17.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="17.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="17.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="17.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="17.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="17.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="17.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="17.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="17.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="17.25">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="17.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="17.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="17.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="17.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="17.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1019,7 +1046,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,24 +1058,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phân công.xlsx
+++ b/Phân công.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/20120246_student_hcmus_edu_vn/Documents/THIRD ACADEMIC YEAR/Introduction to Algorithm Complexity Analysis/CSC14007_Mid-term-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0BBC991-D0FB-4BEB-8C8E-3F3F9A1E4753}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B5F9AE6-893D-409D-9A90-4D3760996FF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân công" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Nhập môn Phân tích Độ phức tạp thuật toán</t>
   </si>
@@ -103,13 +100,16 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>HA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +367,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,10 +711,10 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -721,7 +725,7 @@
     <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="33.75">
+    <row r="1" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -730,7 +734,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="2:7" ht="21">
+    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -739,14 +743,14 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="21">
+    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="21">
+    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,7 +759,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="21">
+    <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -764,14 +768,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="17.25">
+    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -791,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17.25" customHeight="1">
+    <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -807,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25">
+    <row r="9" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -821,7 +825,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" ht="17.25">
+    <row r="10" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -835,7 +839,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" ht="17.25">
+    <row r="11" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -843,11 +847,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:7" ht="17.25">
+    <row r="12" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -858,7 +864,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:7" ht="17.25">
+    <row r="13" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -866,10 +872,12 @@
         <v>19</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="17.25">
+    <row r="14" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -882,161 +890,161 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:7" ht="17.25">
+    <row r="15" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:7" ht="17.25">
+    <row r="16" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="17.25">
+    <row r="17" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25">
+    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" ht="17.25">
+    <row r="19" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="17.25">
+    <row r="20" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="17.25">
+    <row r="21" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="17.25">
+    <row r="22" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="17.25">
+    <row r="23" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="17.25">
+    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" ht="17.25">
+    <row r="25" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" ht="17.25">
+    <row r="26" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" ht="17.25">
+    <row r="27" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="17.25">
+    <row r="28" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" ht="17.25">
+    <row r="29" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" ht="17.25">
+    <row r="30" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" ht="17.25">
+    <row r="31" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="17.25">
+    <row r="32" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6" ht="17.25">
+    <row r="33" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="17.25">
+    <row r="34" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="17.25">
+    <row r="35" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" ht="17.25">
+    <row r="36" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" ht="17.25">
+    <row r="37" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1063,7 +1071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1075,7 +1083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phân công.xlsx
+++ b/Phân công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/20120246_student_hcmus_edu_vn/Documents/THIRD ACADEMIC YEAR/Introduction to Algorithm Complexity Analysis/CSC14007_Mid-term-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B5F9AE6-893D-409D-9A90-4D3760996FF4}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABA390C-8E3C-473E-B770-BDC912D77B53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Nhập môn Phân tích Độ phức tạp thuật toán</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>HA</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -252,6 +255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +806,9 @@
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="10">
+        <v>44871</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
@@ -818,11 +824,15 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="10">
+        <v>44871</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -832,7 +842,9 @@
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="10">
+        <v>44871</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
@@ -846,11 +858,15 @@
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="10">
+        <v>44873</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -860,7 +876,9 @@
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="10">
+        <v>44873</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
@@ -871,7 +889,9 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="10">
+        <v>44873</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
@@ -884,7 +904,9 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="10">
+        <v>44874</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>21</v>
       </c>

--- a/Phân công.xlsx
+++ b/Phân công.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,14 +17,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,6 +84,9 @@
     <t>Đăng</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Knuth–Morris–Pratt Algorithm</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>Tính thời gian chạy, vẽ biểu đồ</t>
   </si>
   <si>
+    <t>HA</t>
+  </si>
+  <si>
     <t>Tổng hợp report</t>
   </si>
   <si>
@@ -100,19 +109,13 @@
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>HA</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +249,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -255,7 +259,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +374,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,7 +717,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -729,16 +728,16 @@
     <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:7" ht="33.75">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="2:7" ht="21">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -747,14 +746,14 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="21">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="21">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,7 +762,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="21">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -772,14 +771,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="17.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -799,274 +798,274 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="17.25" customHeight="1">
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>44871</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="17.25">
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>44871</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7" ht="17.25">
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
         <v>44871</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" ht="17.25">
       <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
         <v>44873</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" ht="17.25">
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
         <v>44873</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="17.25">
       <c r="B13" s="4">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>44873</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10">
-        <v>44873</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="17.25">
       <c r="B14" s="4">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
         <v>44874</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="17.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="17.25">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="17.25">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="17.25">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="17.25">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="17.25">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="17.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="17.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="17.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="17.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="17.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="17.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="17.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="17.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="17.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="17.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="17.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="17.25">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="17.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="17.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="17.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="17.25">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="17.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1093,7 +1092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1105,7 +1104,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Phân công.xlsx
+++ b/Phân công.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25906"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/20120246_student_hcmus_edu_vn/Documents/THIRD ACADEMIC YEAR/Introduction to Algorithm Complexity Analysis/CSC14007_Mid-term-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABA390C-8E3C-473E-B770-BDC912D77B53}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{5DD6DE4F-2E43-4F08-89EE-61DEA816A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A431DC-D7AC-41D3-B643-A81797A53801}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Nhập môn Phân tích Độ phức tạp thuật toán</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Đạt</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>Mỗi thuật toán gồm 1 file word mô tả
@@ -82,9 +85,6 @@
   </si>
   <si>
     <t>Đăng</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Knuth–Morris–Pratt Algorithm</t>
@@ -714,7 +714,7 @@
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -811,9 +811,11 @@
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25">
@@ -821,16 +823,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
         <v>44871</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -864,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" s="10"/>
     </row>
